--- a/现金流量表/000960.xlsx
+++ b/现金流量表/000960.xlsx
@@ -744,52 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2100877375.3</v>
+        <v>2540490248.14</v>
       </c>
       <c r="P2" t="n">
-        <v>294.8877841047</v>
+        <v>198.216789396</v>
       </c>
       <c r="Q2" t="n">
-        <v>45921946970.85</v>
+        <v>43263468510.74</v>
       </c>
       <c r="R2" t="n">
-        <v>6445.7932401084</v>
+        <v>3375.547626138</v>
       </c>
       <c r="S2" t="n">
-        <v>1945121654.06</v>
+        <v>1737859091.88</v>
       </c>
       <c r="T2" t="n">
-        <v>273.0252708337</v>
+        <v>135.593061169</v>
       </c>
       <c r="U2" t="n">
-        <v>-1948450605.78</v>
+        <v>-3158011726.17</v>
       </c>
       <c r="V2" t="n">
-        <v>-273.4925361809</v>
+        <v>-246.3976965449</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>1951892252.12</v>
+        <v>3065054955.35</v>
       </c>
       <c r="Z2" t="n">
-        <v>273.9756198081</v>
+        <v>239.1449260696</v>
       </c>
       <c r="AA2" t="n">
-        <v>-873547811.54</v>
+        <v>1863009126.88</v>
       </c>
       <c r="AB2" t="n">
-        <v>-122.6147615673</v>
+        <v>145.3576482004</v>
       </c>
       <c r="AC2" t="n">
-        <v>-712432826.5</v>
+        <v>1281672584.79</v>
       </c>
       <c r="AD2" t="n">
-        <v>-155.5861797275</v>
+        <v>-3.7085237094</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/000960.xlsx
+++ b/现金流量表/000960.xlsx
@@ -744,52 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2540490248.14</v>
+        <v>2100877375.3</v>
       </c>
       <c r="P2" t="n">
-        <v>198.216789396</v>
+        <v>294.8877841047</v>
       </c>
       <c r="Q2" t="n">
-        <v>43263468510.74</v>
+        <v>45921946970.85</v>
       </c>
       <c r="R2" t="n">
-        <v>3375.547626138</v>
+        <v>6445.7932401084</v>
       </c>
       <c r="S2" t="n">
-        <v>1737859091.88</v>
+        <v>1945121654.06</v>
       </c>
       <c r="T2" t="n">
-        <v>135.593061169</v>
+        <v>273.0252708337</v>
       </c>
       <c r="U2" t="n">
-        <v>-3158011726.17</v>
+        <v>-1948450605.78</v>
       </c>
       <c r="V2" t="n">
-        <v>-246.3976965449</v>
+        <v>-273.4925361809</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>3065054955.35</v>
+        <v>1951892252.12</v>
       </c>
       <c r="Z2" t="n">
-        <v>239.1449260696</v>
+        <v>273.9756198081</v>
       </c>
       <c r="AA2" t="n">
-        <v>1863009126.88</v>
+        <v>-873547811.54</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.3576482004</v>
+        <v>-122.6147615673</v>
       </c>
       <c r="AC2" t="n">
-        <v>1281672584.79</v>
+        <v>-712432826.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>-3.7085237094</v>
+        <v>-155.5861797275</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
